--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2255C0-00BA-034A-977B-F0F81818243E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A00B12-4857-D745-A613-E4DFBCEE8A56}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="560" windowWidth="27840" windowHeight="16560" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
   <si>
     <t>麻烦猎头朋友推荐的时候附上人选的作品链接或者作品展示，越多越好，</t>
+  </si>
+  <si>
+    <t>实习期、培训期不纳入实际工作经验中</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -415,6 +418,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A00B12-4857-D745-A613-E4DFBCEE8A56}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B91EA4-E786-BD42-BACE-67F09DF554D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="560" windowWidth="27840" windowHeight="16560" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>实习期、培训期不纳入实际工作经验中</t>
+  </si>
+  <si>
+    <t>必须对业务各个流程非常熟悉</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -423,6 +426,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B91EA4-E786-BD42-BACE-67F09DF554D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0460E-14D4-DA49-B600-DB43C591031C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="560" windowWidth="27840" windowHeight="16560" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
@@ -37,13 +37,36 @@
   </si>
   <si>
     <t>必须对业务各个流程非常熟悉</t>
+  </si>
+  <si>
+    <r>
+      <t>具备快速学习新知识和技能并应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>⽤用到实际⼯工作中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请让候选人完整的填写个人简介（个人评价）</t>
+  </si>
+  <si>
+    <t>对新事物，新变化有好奇心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,6 +81,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -431,6 +461,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0460E-14D4-DA49-B600-DB43C591031C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2E033C-8A28-A749-832F-2710F8660071}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="560" windowWidth="27840" windowHeight="16560" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
-  </si>
-  <si>
-    <t>麻烦猎头朋友推荐的时候附上人选的作品链接或者作品展示，越多越好，</t>
   </si>
   <si>
     <t>实习期、培训期不纳入实际工作经验中</t>
@@ -59,6 +56,10 @@
   </si>
   <si>
     <t>对新事物，新变化有好奇心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻烦猎头朋友推荐的时候附上人选的作品链接或者作品展示，越多越好，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -448,32 +449,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2E033C-8A28-A749-832F-2710F8660071}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB6AA2-D77C-1B41-B9CF-B4E2BEEC1D60}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17120" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
@@ -62,12 +62,42 @@
     <t>麻烦猎头朋友推荐的时候附上人选的作品链接或者作品展示，越多越好，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>必须在每一段项目经历里面写清楚用到的所有技术点，比如开发环境、开发框架、开发语言等技术栈；</t>
+  </si>
+  <si>
+    <t>外貌也稍微要控制下</t>
+  </si>
+  <si>
+    <t>能撕产品、撩开发、以各种姿势争取资源支持，目标感强</t>
+  </si>
+  <si>
+    <t>对新技术和it科技有一定了解以及快速接受能力</t>
+  </si>
+  <si>
+    <t>能够独立完成工作，善于总结经验并提出合理的改进建议</t>
+  </si>
+  <si>
+    <t>高级理财经理业绩指标在2亿/年，理财经理在1亿/年</t>
+  </si>
+  <si>
+    <t>竞争对手公司的简历不看；</t>
+  </si>
+  <si>
+    <t>行业背景不限，学历或是公司背景比较优秀的都可以推荐</t>
+  </si>
+  <si>
+    <t>需要在简历附件中上传候选人原始简历，原始简历中写有电话和邮箱</t>
+  </si>
+  <si>
+    <t>推荐的每个候选人麻烦顾问在简历中附上个人证件照（若无证件照，需要严肃点的生活照）。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +119,12 @@
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF373A3C"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,8 +149,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -477,6 +516,56 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:1" ht="20">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="20">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="20">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="20">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="20">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB6AA2-D77C-1B41-B9CF-B4E2BEEC1D60}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325EFE3F-1A8C-1549-83F2-2D0F1C4B7803}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17120" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17120" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
@@ -91,6 +91,270 @@
   </si>
   <si>
     <t>推荐的每个候选人麻烦顾问在简历中附上个人证件照（若无证件照，需要严肃点的生活照）。</t>
+  </si>
+  <si>
+    <t>6、学历或者公司背景其中一个得有亮点；</t>
+  </si>
+  <si>
+    <t>4. 擅长与人对话和深度系统性思考，能够对用户的行为、语言进行敏锐的洞察和客观准确的分析；</t>
+  </si>
+  <si>
+    <t>熟悉即可，不需精通，需要有学习能力和愿望</t>
+  </si>
+  <si>
+    <t>7、候选人简历需要附照片。</t>
+  </si>
+  <si>
+    <t>形象气质佳</t>
+  </si>
+  <si>
+    <t>5、有一定的公司发展战略高度和眼光；</t>
+  </si>
+  <si>
+    <t>意向度不强，随便聊聊的候选人不看</t>
+  </si>
+  <si>
+    <t>年轻有活力</t>
+  </si>
+  <si>
+    <t>技术前沿化</t>
+  </si>
+  <si>
+    <t>对行业发展有独立理解和判断</t>
+  </si>
+  <si>
+    <t>有下述一项或多项工作经验者优先：</t>
+  </si>
+  <si>
+    <t>积极主动，成长愿望强烈</t>
+  </si>
+  <si>
+    <t>头脑开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coo-cto 都向ceo于总（董事成员）汇报</t>
+  </si>
+  <si>
+    <t>性格成熟稳重，工作踏实认真，</t>
+  </si>
+  <si>
+    <t>能服从公司安排</t>
+  </si>
+  <si>
+    <t>4、能够接受轮班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有很好的新技术视野宽度广度，对新技术具备很强的独立研究能力</t>
+  </si>
+  <si>
+    <t>投递简历时必须提供相关设计美术作品；</t>
+  </si>
+  <si>
+    <t>有诚信正直的良好品质，性格稳重，工作认真负责，严谨细致，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度沉迷上述新媒体之一者、偏执狂优先</t>
+  </si>
+  <si>
+    <t>4、为人正直、作风正派、严谨认真、原则性与政策性强；</t>
+  </si>
+  <si>
+    <t>5.需要候选人能接受出差。</t>
+  </si>
+  <si>
+    <t>情商高，善于平衡利益关系；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注重代码风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、详细职责和要求看jd原文</t>
+  </si>
+  <si>
+    <t>必须诚信正直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对品牌有自己的理解和认知;</t>
+  </si>
+  <si>
+    <t>遵纪守法、诚实守信，具有良好的个人品质和职业道德，无不良从业记录，认真履行员工义务和岗位职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、形象好，气质佳，情商高。</t>
+  </si>
+  <si>
+    <t>3、必须简历附加上个人照片</t>
+  </si>
+  <si>
+    <t>3、具有在战略、规划、发展等方面的成功经验；</t>
+  </si>
+  <si>
+    <t>对公司忠诚，沟通能力强，做事果断，视野宏观，对公司战略有清晰地认知，并能不断提出有效的建议</t>
+  </si>
+  <si>
+    <t>对工作年限没有要求，</t>
+  </si>
+  <si>
+    <t>必须接受出差和驻外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服从公司安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、为人正直、处事灵活、责任心强、作风严谨、工作仔细认真，有良好的职业道德；</t>
+  </si>
+  <si>
+    <t>5、形象好，气质佳</t>
+  </si>
+  <si>
+    <t>拜访客户，与客户建立良好的关系；</t>
+  </si>
+  <si>
+    <t>能够适应长期出差以及驻外</t>
+  </si>
+  <si>
+    <t>4、稳重、踏实、勤勉、敬业，</t>
+  </si>
+  <si>
+    <t>4、学历无明确要求，高中毕业以上都可以；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个月内可以将自己的资源转化成业绩</t>
+  </si>
+  <si>
+    <t>知识面广，热爱写作，喜欢通过文字表达自己的感受和观点；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人选能够接受当场笔试过45分才面试，笔试不过45不面试！</t>
+  </si>
+  <si>
+    <t>喜欢学而思的候选人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、简历必须附上照片，女性写清婚育情况；</t>
+  </si>
+  <si>
+    <t>必须形象气质佳（简历须附照片）</t>
+  </si>
+  <si>
+    <t>附件无候选人照片不考虑</t>
+  </si>
+  <si>
+    <t>要求候选人形象气质佳，需要附照片；</t>
+  </si>
+  <si>
+    <t>有开放的心态，能够较快地适应各种变化；</t>
+  </si>
+  <si>
+    <t>1、不安于现状，有上进心，认为自己是将帅之才，能够帮助企业开疆扩土；</t>
+  </si>
+  <si>
+    <t>4、简历请体现相关运营数据。</t>
+  </si>
+  <si>
+    <t>4、根据公司发展规划，持续完成每月销售指标；</t>
+  </si>
+  <si>
+    <t>5.喜欢挑战性的工作，饱满的工作激情，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、工作细致，有条理，能够从繁琐的工作任务中梳理脉络，并规避风险。</t>
+  </si>
+  <si>
+    <t>能力一般的在校学生不考虑</t>
+  </si>
+  <si>
+    <t>5、优秀者年龄可以适当放宽；</t>
+  </si>
+  <si>
+    <t>性格积极、热情、充满正能量，能够在高压环境下积极高效的完成工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.形象气质好（简历需添加照片）</t>
+  </si>
+  <si>
+    <t>年龄、性别、学历、专业统统不限</t>
+  </si>
+  <si>
+    <t>必须雷厉风行，结果导向，目标性强。</t>
+  </si>
+  <si>
+    <t>公司背景好，学历可以放宽；</t>
+  </si>
+  <si>
+    <t>能适应一定频度的短期出差</t>
+  </si>
+  <si>
+    <t>必须是在2015年之前毕业的</t>
+  </si>
+  <si>
+    <t>投递简历请附带近期作品</t>
+  </si>
+  <si>
+    <t>超过1个月来入职的不考虑</t>
+  </si>
+  <si>
+    <t>3、严谨细心，稳重踏实。</t>
+  </si>
+  <si>
+    <t>5、以目标和结果为导向，具备高度执行力。</t>
+  </si>
+  <si>
+    <t>关注细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、推荐请附上候选人文案作品。</t>
+  </si>
+  <si>
+    <t>7、办事认真严谨；追求成功，精力充沛，可以承受较大工作压力。</t>
+  </si>
+  <si>
+    <t>6.有样板简历，之前offer没入职的候选人简历，做单请找我要下</t>
+  </si>
+  <si>
+    <t>其他项。</t>
+  </si>
+  <si>
+    <t>2、形象气质佳，有良好的专业素养；</t>
+  </si>
+  <si>
+    <t>6、性格开朗、自我驱动、价值观正确，有明确的结果导向和目标意识。</t>
+  </si>
+  <si>
+    <t>2)崇尚狼性为文化，以实际业绩为导向；</t>
+  </si>
+  <si>
+    <t>形象气质佳（请附照片）</t>
+  </si>
+  <si>
+    <t>4、能适应每月一次的异地代理商拜访频次；</t>
+  </si>
+  <si>
+    <t>6. 有激情，有韧劲，愿与公司共同发展。</t>
+  </si>
+  <si>
+    <t>3、有扎实的基础专业知识，具备敏锐的洞察力及危机应对能力；</t>
+  </si>
+  <si>
+    <t>6、对初创业型企业工作方式有清晰理解和认可，能适应工作压力和敢于面对挑战</t>
+  </si>
+  <si>
+    <t>能适应翻班制工作，有良好的服务意识，善于沟通，为人谦逊，有较强的亲和力；</t>
   </si>
 </sst>
 </file>
@@ -470,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -566,6 +830,421 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325EFE3F-1A8C-1549-83F2-2D0F1C4B7803}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C37AE2-F98E-6940-B741-5F266792B968}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17120" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
@@ -356,12 +356,47 @@
   <si>
     <t>能适应翻班制工作，有良好的服务意识，善于沟通，为人谦逊，有较强的亲和力；</t>
   </si>
+  <si>
+    <t>上班距离单程超过1小时不考虑</t>
+  </si>
+  <si>
+    <t>能适应一定频率的出差。</t>
+  </si>
+  <si>
+    <t>7.能适应一定程度的出差</t>
+  </si>
+  <si>
+    <t>有设计产品的可以附上作品或者作品链接</t>
+  </si>
+  <si>
+    <t>只停留在理论层面不考虑，一定要有实际经验</t>
+  </si>
+  <si>
+    <t>5、必须上传相关作品到附件；</t>
+  </si>
+  <si>
+    <t>公司官网：www.flkj.ai</t>
+  </si>
+  <si>
+    <t>注：推候选人，请沟通下是否有别的猎头已经推过以及是否参加过面试</t>
+  </si>
+  <si>
+    <t>对标公司请参看职位沟通记录中的图片或直接联系职位分析师；</t>
+  </si>
+  <si>
+    <t>JD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,6 +425,19 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF373A3C"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF373A3C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -413,11 +461,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,516 +791,899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="64.5" customWidth="1"/>
+    <col min="2" max="2" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="20">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" ht="20">
+      <c r="A9" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="20">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" ht="20">
+      <c r="A10" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="20">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" ht="20">
+      <c r="A11" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="20">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" ht="20">
+      <c r="A12" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="20">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" ht="20">
+      <c r="A13" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="20">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" ht="20">
+      <c r="A14" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="20">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" ht="20">
+      <c r="A15" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="20">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" ht="20">
+      <c r="A16" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="20">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" ht="20">
+      <c r="A17" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="20">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" ht="20">
+      <c r="A18" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B101" t="s">
         <v>99</v>
       </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4">
+        <v>43521</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C37AE2-F98E-6940-B741-5F266792B968}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED3E986-61DA-7D4D-B014-06B90BA7A581}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17120" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
@@ -391,12 +391,28 @@
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简历中一定要有亮点</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身心健康，有事业心，勤奋踏实而敏锐</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,6 +452,13 @@
       <color rgb="FF373A3C"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF373A3C"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -791,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1683,7 +1706,17 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="4"/>
+      <c r="A111" s="4">
+        <v>43523</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="20">
+      <c r="B112" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED3E986-61DA-7D4D-B014-06B90BA7A581}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F1A4B9-2D47-F14B-BE91-40323D9DD35D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17120" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
@@ -406,6 +406,123 @@
   </si>
   <si>
     <t>身心健康，有事业心，勤奋踏实而敏锐</t>
+  </si>
+  <si>
+    <t>2、有以下两项或多项相关经验</t>
+  </si>
+  <si>
+    <t>特别优秀的候选可以放宽到本科</t>
+  </si>
+  <si>
+    <t>必须报告上体现过往具体项目经历、数据等</t>
+  </si>
+  <si>
+    <t>需出差--国内和国外都有</t>
+  </si>
+  <si>
+    <t>4.不能接受加班的候选人不考虑。</t>
+  </si>
+  <si>
+    <t>没有完整项目经验的不考虑。</t>
+  </si>
+  <si>
+    <t>3、工作积极主动，有较强责任感和严谨工作作风；</t>
+  </si>
+  <si>
+    <t>该岗位均按月薪的一个月收费，流程快。公司已经有多次回款记录。</t>
+  </si>
+  <si>
+    <t>薪资超过预算范围者不考虑；</t>
+  </si>
+  <si>
+    <t>工作态度认真，能在较大的压力下保持良好工作状态。</t>
+  </si>
+  <si>
+    <t>之前的项目额要起码几个亿；</t>
+  </si>
+  <si>
+    <t>4、请在推荐简历时注明人选的基本家庭状况，户籍，籍贯，身高，体重和近照一张，感谢配合。</t>
+  </si>
+  <si>
+    <t>颜值不能掉线，形象气质佳</t>
+  </si>
+  <si>
+    <t>推荐请务必提供近期相关文案作品（请提供在线连接或者pdf附件，或其他可浏览方式）。</t>
+  </si>
+  <si>
+    <t>之前从事的公司100+人 1-2亿左右的盘子</t>
+  </si>
+  <si>
+    <t>5、该行业至少8年以上工作经验，找该领域行家</t>
+  </si>
+  <si>
+    <t>5、有想法，有责任心，有开阔的人生观，重落地。</t>
+  </si>
+  <si>
+    <t>加分项：</t>
+  </si>
+  <si>
+    <t>4、参考对标公司见附件。</t>
+  </si>
+  <si>
+    <t>亲们注意啦，北京前端hc：5-7人，大量hc还是以杭州前端为主</t>
+  </si>
+  <si>
+    <t>对事物有比较好的好奇心优先</t>
+  </si>
+  <si>
+    <t>1、教育背景越优越好(老板学历较好)；</t>
+  </si>
+  <si>
+    <t>5. 具有强烈的事业心、责任感，具备良好的职业操守，品行端正，无不良记录；</t>
+  </si>
+  <si>
+    <t>5、可以接受短期出差。</t>
+  </si>
+  <si>
+    <t>【2】必须责任心强，能够承受高强度工作压力；</t>
+  </si>
+  <si>
+    <t>切勿和候选人透露客户公司名称，可以说该公司是一家期货现货结合的大宗商品贸易公司。</t>
+  </si>
+  <si>
+    <t>有千万级别成功游戏作品者优先</t>
+  </si>
+  <si>
+    <t>在权威机器学习竞赛上作为核心成员获得过前三名以上的成绩</t>
+  </si>
+  <si>
+    <t>必须具备高情商，善于把握公司内部平衡点</t>
+  </si>
+  <si>
+    <t>说明工作业绩、明确开发的爆款，如果可以，附上店铺链接</t>
+  </si>
+  <si>
+    <t>参与过大型成功案例经验者优先</t>
+  </si>
+  <si>
+    <t>具备空杯的心态，能够听取有效建议；</t>
+  </si>
+  <si>
+    <t>9、简历中务必写明候选人的放款总额和放贷逾期率两项指标，没有这两项的简历打回重做</t>
+  </si>
+  <si>
+    <t>必须能适应长期出差（每月3周的出差）</t>
+  </si>
+  <si>
+    <t>2、有15加店以上；</t>
+  </si>
+  <si>
+    <t>2、能接受经常出差，出差范围：项目基本是在西安或陕西省内内，也有部分项目需要省外出差，看具体项目情况。</t>
+  </si>
+  <si>
+    <t>5、工作积极主动，责任心强，能承受紧张的工作压力。</t>
+  </si>
+  <si>
+    <t>公司官网： http://www.brady.com.cn/</t>
+  </si>
+  <si>
+    <t>公司官网：http://www.pulshion.com/</t>
   </si>
 </sst>
 </file>
@@ -814,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1714,8 +1831,323 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="20">
+      <c r="A112" s="4">
+        <v>43525</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4">
+        <v>43525</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/无需解析的JD.xlsx
+++ b/无需解析的JD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/llb/Desktop/Github/JDextract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F1A4B9-2D47-F14B-BE91-40323D9DD35D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D4C44A-4B2C-4945-97B5-35F8FF7CC0FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17120" xr2:uid="{EBF473FC-6968-1349-9565-A98BECB68A50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
   <si>
     <t>简历一定要附上作品，作品跟职位的要求相关</t>
   </si>
@@ -523,6 +523,153 @@
   </si>
   <si>
     <t>公司官网：http://www.pulshion.com/</t>
+  </si>
+  <si>
+    <t>2017年11月大健康板块独立运作，每年投放规模10亿左右</t>
+  </si>
+  <si>
+    <t>具有良好的心理素质，能够承受一定强度的工作压力</t>
+  </si>
+  <si>
+    <t>4.能接受出差；（一个季度或者半年一次）</t>
+  </si>
+  <si>
+    <t>业绩指标：按照8人团队规模，业绩指标为8个亿（第一年减半，第二年7-8折，第三年必须完成）</t>
+  </si>
+  <si>
+    <t>5，能为团队带来积极影响</t>
+  </si>
+  <si>
+    <t>5.具有强烈的事业心、责任感，具备良好的职业操守，品行端正，无不良记录</t>
+  </si>
+  <si>
+    <t>有自己的技术博客并持续更新；</t>
+  </si>
+  <si>
+    <t>具备良好的心理素质，有很强的责任感和敬业精神，能承受高强度工作压力</t>
+  </si>
+  <si>
+    <t>2、带资入股: 6万~10万；</t>
+  </si>
+  <si>
+    <t>具有强烈的责任心和事业心，认同公司的愿景与文化，并及时反馈自己的思考。</t>
+  </si>
+  <si>
+    <t>3、可以适应短期出差者优先</t>
+  </si>
+  <si>
+    <t>3、需要多个hc，高中低级别的都要。</t>
+  </si>
+  <si>
+    <t>不受理报名的情况</t>
+  </si>
+  <si>
+    <t>6、对技术有热情，专注于技术</t>
+  </si>
+  <si>
+    <t>4.初创团队，更需要能吃苦耐劳、不计较的做事精神;</t>
+  </si>
+  <si>
+    <t>候选人性格稳重踏实做事；</t>
+  </si>
+  <si>
+    <t>5、年龄很重要，年龄偏大者不看</t>
+  </si>
+  <si>
+    <t>6、简历必须附人选负责的项目规模和企业客户类型</t>
+  </si>
+  <si>
+    <t>3、业绩能力优秀，简历中请清晰标明业绩情况。</t>
+  </si>
+  <si>
+    <t>1、软性素质：穿着得体；谈吐大方；具有大局观</t>
+  </si>
+  <si>
+    <t>在顶级机器学习和ai领域会议和期刊上发表过文章者优先；</t>
+  </si>
+  <si>
+    <t>5、具有良好的职业道德和强烈的进取心，精力充沛，身体健康，乐观豁达，富有开拓精神；</t>
+  </si>
+  <si>
+    <t>不接受出差频率的不考虑</t>
+  </si>
+  <si>
+    <t>3.非相关行业或者多样化行业背景的不考虑</t>
+  </si>
+  <si>
+    <t>4.实习期、培训期不纳入实际工作经验中</t>
+  </si>
+  <si>
+    <t>需要有1-2个行业经验</t>
+  </si>
+  <si>
+    <t>有独立完成过的成功案例者优先；</t>
+  </si>
+  <si>
+    <t>6、具备良好的编程习惯，遵守公司相关标准规范，能够高效率高质量完成任务</t>
+  </si>
+  <si>
+    <t>ps:提交简历时请上传一份个人作品</t>
+  </si>
+  <si>
+    <t>4.年均个人销售额800w左右</t>
+  </si>
+  <si>
+    <t>4、认同公司文化，可以快速的拥抱变化；</t>
+  </si>
+  <si>
+    <t>心态开放，有创业激情，想陪伴一家成长型公司实现愿景</t>
+  </si>
+  <si>
+    <t>职位会有海外出差情况，视情况安排而定，大概一月会有三分之一时间出差</t>
+  </si>
+  <si>
+    <t>2、过往销售业绩优秀，有强烈的创业意识，进取心，愿与公司一同成长；</t>
+  </si>
+  <si>
+    <t>此岗位需要经常出差，短期出差（3至5天）但次数频繁，如人选不接受出差或对出差有一定顾虑的不用约面试也不用推荐</t>
+  </si>
+  <si>
+    <t>必须有多个相关项目的成功经验</t>
+  </si>
+  <si>
+    <t>过去工作中取得过优秀业绩</t>
+  </si>
+  <si>
+    <t>理财是个人兴趣爱好之一</t>
+  </si>
+  <si>
+    <t>3、性格外向，活泼开朗、善于交流，能积极融入多功能团队并与其他部门同事进行良好的合作；</t>
+  </si>
+  <si>
+    <t>4、需要在简历附件中，上传一份有候选人电话和邮箱的word文档，方便我方在企业系统查重。</t>
+  </si>
+  <si>
+    <t>候选人聪明、愿意学习、够灵活</t>
+  </si>
+  <si>
+    <t>4.简历推荐时请务必放上附件作品</t>
+  </si>
+  <si>
+    <t>5、为人诚实守信，认同企业文化和价值观；</t>
+  </si>
+  <si>
+    <t>7、销售业绩人均100万美金</t>
+  </si>
+  <si>
+    <t>过往整体销售额达千万级</t>
+  </si>
+  <si>
+    <t>要求过往业绩：一年销售额五六十亿</t>
+  </si>
+  <si>
+    <t>一定不能联系目前在职的员工，市场总监-潘骐</t>
+  </si>
+  <si>
+    <t>至少精通以下技术和应用中的至少一种：</t>
+  </si>
+  <si>
+    <t>2，亲和力强，形象气质佳，着装得体有品位，妆容淡雅</t>
   </si>
 </sst>
 </file>
@@ -931,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F38FAD-7240-DD47-9F8D-347ACF725CA4}">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="125" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2150,6 +2297,406 @@
         <v>151</v>
       </c>
     </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="4">
+        <v>43545</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="4">
+        <v>43549</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
